--- a/odds/Game of Yards! 2025 Betting Odds.xlsx
+++ b/odds/Game of Yards! 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>Record</t>
   </si>
@@ -78,118 +78,112 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>87.9%</t>
-  </si>
-  <si>
-    <t>47.4%</t>
-  </si>
-  <si>
-    <t>42.8%</t>
-  </si>
-  <si>
-    <t>39.9%</t>
-  </si>
-  <si>
-    <t>35.6%</t>
-  </si>
-  <si>
-    <t>25.5%</t>
-  </si>
-  <si>
-    <t>20.9%</t>
+    <t>88.1%</t>
+  </si>
+  <si>
+    <t>50.4%</t>
+  </si>
+  <si>
+    <t>47.6%</t>
+  </si>
+  <si>
+    <t>41.4%</t>
+  </si>
+  <si>
+    <t>31.4%</t>
+  </si>
+  <si>
+    <t>21.6%</t>
+  </si>
+  <si>
+    <t>19.5%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-726</t>
-  </si>
-  <si>
-    <t>+111</t>
-  </si>
-  <si>
-    <t>+134</t>
-  </si>
-  <si>
-    <t>+151</t>
-  </si>
-  <si>
-    <t>+181</t>
-  </si>
-  <si>
-    <t>+292</t>
-  </si>
-  <si>
-    <t>+378</t>
+    <t>-740</t>
+  </si>
+  <si>
+    <t>-102</t>
+  </si>
+  <si>
+    <t>+110</t>
+  </si>
+  <si>
+    <t>+142</t>
+  </si>
+  <si>
+    <t>+218</t>
+  </si>
+  <si>
+    <t>+363</t>
+  </si>
+  <si>
+    <t>+413</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>55.7%</t>
-  </si>
-  <si>
-    <t>36.9%</t>
-  </si>
-  <si>
-    <t>7.4%</t>
+    <t>57.5%</t>
+  </si>
+  <si>
+    <t>34.7%</t>
+  </si>
+  <si>
+    <t>7.8%</t>
   </si>
   <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>-126</t>
-  </si>
-  <si>
-    <t>+171</t>
-  </si>
-  <si>
-    <t>+1251</t>
+    <t>-135</t>
+  </si>
+  <si>
+    <t>+188</t>
+  </si>
+  <si>
+    <t>+1182</t>
   </si>
   <si>
     <t>+∞</t>
   </si>
   <si>
-    <t>26.3%</t>
-  </si>
-  <si>
-    <t>25.1%</t>
+    <t>28.2%</t>
+  </si>
+  <si>
+    <t>23.2%</t>
+  </si>
+  <si>
+    <t>17.6%</t>
   </si>
   <si>
     <t>14.7%</t>
   </si>
   <si>
-    <t>14.5%</t>
-  </si>
-  <si>
-    <t>9.7%</t>
-  </si>
-  <si>
-    <t>9.6%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>+280</t>
-  </si>
-  <si>
-    <t>+298</t>
+    <t>8.6%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>+255</t>
+  </si>
+  <si>
+    <t>+331</t>
+  </si>
+  <si>
+    <t>+468</t>
   </si>
   <si>
     <t>+580</t>
   </si>
   <si>
-    <t>+590</t>
-  </si>
-  <si>
-    <t>+931</t>
-  </si>
-  <si>
-    <t>+942</t>
-  </si>
-  <si>
-    <t>+99900</t>
+    <t>+1063</t>
+  </si>
+  <si>
+    <t>+1199</t>
   </si>
 </sst>
 </file>
@@ -912,7 +906,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -926,12 +920,12 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -940,12 +934,12 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -954,12 +948,12 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -968,12 +962,12 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -982,26 +976,26 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1015,10 +1009,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>

--- a/odds/Game of Yards! 2025 Betting Odds.xlsx
+++ b/odds/Game of Yards! 2025 Betting Odds.xlsx
@@ -42,148 +42,148 @@
     <t>BB</t>
   </si>
   <si>
+    <t>Obi-Wan Jakobi</t>
+  </si>
+  <si>
+    <t>Team CTE</t>
+  </si>
+  <si>
+    <t>Groot-o-Matic</t>
+  </si>
+  <si>
     <t>Brown Munde</t>
   </si>
   <si>
     <t>The Chase is on</t>
   </si>
   <si>
-    <t>Team CTE</t>
-  </si>
-  <si>
-    <t>Groot-o-Matic</t>
-  </si>
-  <si>
     <t>Pain Inflictors</t>
   </si>
   <si>
-    <t>Obi-Wan Jakobi</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>88.1%</t>
-  </si>
-  <si>
-    <t>50.4%</t>
-  </si>
-  <si>
-    <t>47.6%</t>
-  </si>
-  <si>
-    <t>41.4%</t>
-  </si>
-  <si>
-    <t>31.4%</t>
-  </si>
-  <si>
-    <t>21.6%</t>
-  </si>
-  <si>
-    <t>19.5%</t>
+    <t>97.7%</t>
+  </si>
+  <si>
+    <t>55.1%</t>
+  </si>
+  <si>
+    <t>53.0%</t>
+  </si>
+  <si>
+    <t>45.0%</t>
+  </si>
+  <si>
+    <t>28.4%</t>
+  </si>
+  <si>
+    <t>16.9%</t>
+  </si>
+  <si>
+    <t>3.9%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-740</t>
-  </si>
-  <si>
-    <t>-102</t>
-  </si>
-  <si>
-    <t>+110</t>
-  </si>
-  <si>
-    <t>+142</t>
-  </si>
-  <si>
-    <t>+218</t>
-  </si>
-  <si>
-    <t>+363</t>
-  </si>
-  <si>
-    <t>+413</t>
+    <t>-4248</t>
+  </si>
+  <si>
+    <t>-123</t>
+  </si>
+  <si>
+    <t>-113</t>
+  </si>
+  <si>
+    <t>+122</t>
+  </si>
+  <si>
+    <t>+252</t>
+  </si>
+  <si>
+    <t>+492</t>
+  </si>
+  <si>
+    <t>+2464</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>57.5%</t>
-  </si>
-  <si>
-    <t>34.7%</t>
-  </si>
-  <si>
-    <t>7.8%</t>
+    <t>83.9%</t>
+  </si>
+  <si>
+    <t>12.9%</t>
+  </si>
+  <si>
+    <t>3.2%</t>
   </si>
   <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>-135</t>
-  </si>
-  <si>
-    <t>+188</t>
-  </si>
-  <si>
-    <t>+1182</t>
+    <t>-521</t>
+  </si>
+  <si>
+    <t>+675</t>
+  </si>
+  <si>
+    <t>+3025</t>
   </si>
   <si>
     <t>+∞</t>
   </si>
   <si>
-    <t>28.2%</t>
-  </si>
-  <si>
-    <t>23.2%</t>
-  </si>
-  <si>
-    <t>17.6%</t>
-  </si>
-  <si>
-    <t>14.7%</t>
-  </si>
-  <si>
-    <t>8.6%</t>
-  </si>
-  <si>
-    <t>7.7%</t>
-  </si>
-  <si>
-    <t>+255</t>
-  </si>
-  <si>
-    <t>+331</t>
-  </si>
-  <si>
-    <t>+468</t>
-  </si>
-  <si>
-    <t>+580</t>
-  </si>
-  <si>
-    <t>+1063</t>
-  </si>
-  <si>
-    <t>+1199</t>
+    <t>52.3%</t>
+  </si>
+  <si>
+    <t>19.4%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>5.7%</t>
+  </si>
+  <si>
+    <t>2.6%</t>
+  </si>
+  <si>
+    <t>1.6%</t>
+  </si>
+  <si>
+    <t>-110</t>
+  </si>
+  <si>
+    <t>+415</t>
+  </si>
+  <si>
+    <t>+443</t>
+  </si>
+  <si>
+    <t>+1654</t>
+  </si>
+  <si>
+    <t>+3746</t>
+  </si>
+  <si>
+    <t>+6150</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -664,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -678,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -942,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1026,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>

--- a/odds/Game of Yards! 2025 Betting Odds.xlsx
+++ b/odds/Game of Yards! 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Record</t>
   </si>
@@ -42,148 +42,121 @@
     <t>BB</t>
   </si>
   <si>
+    <t>Team CTE</t>
+  </si>
+  <si>
+    <t>Groot-o-Matic</t>
+  </si>
+  <si>
+    <t>Brown Munde</t>
+  </si>
+  <si>
     <t>Obi-Wan Jakobi</t>
   </si>
   <si>
-    <t>Team CTE</t>
-  </si>
-  <si>
-    <t>Groot-o-Matic</t>
-  </si>
-  <si>
-    <t>Brown Munde</t>
-  </si>
-  <si>
     <t>The Chase is on</t>
   </si>
   <si>
     <t>Pain Inflictors</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>97.7%</t>
-  </si>
-  <si>
-    <t>55.1%</t>
-  </si>
-  <si>
-    <t>53.0%</t>
-  </si>
-  <si>
-    <t>45.0%</t>
-  </si>
-  <si>
-    <t>28.4%</t>
-  </si>
-  <si>
-    <t>16.9%</t>
-  </si>
-  <si>
-    <t>3.9%</t>
+    <t>96.9%</t>
+  </si>
+  <si>
+    <t>84.2%</t>
+  </si>
+  <si>
+    <t>66.8%</t>
+  </si>
+  <si>
+    <t>43.3%</t>
+  </si>
+  <si>
+    <t>8.0%</t>
+  </si>
+  <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-4248</t>
-  </si>
-  <si>
-    <t>-123</t>
-  </si>
-  <si>
-    <t>-113</t>
-  </si>
-  <si>
-    <t>+122</t>
-  </si>
-  <si>
-    <t>+252</t>
-  </si>
-  <si>
-    <t>+492</t>
-  </si>
-  <si>
-    <t>+2464</t>
+    <t>-3126</t>
+  </si>
+  <si>
+    <t>-533</t>
+  </si>
+  <si>
+    <t>-201</t>
+  </si>
+  <si>
+    <t>+131</t>
+  </si>
+  <si>
+    <t>+1150</t>
+  </si>
+  <si>
+    <t>+12400</t>
+  </si>
+  <si>
+    <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>83.9%</t>
-  </si>
-  <si>
-    <t>12.9%</t>
-  </si>
-  <si>
-    <t>3.2%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-521</t>
-  </si>
-  <si>
-    <t>+675</t>
-  </si>
-  <si>
-    <t>+3025</t>
-  </si>
-  <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>52.3%</t>
-  </si>
-  <si>
-    <t>19.4%</t>
-  </si>
-  <si>
-    <t>18.4%</t>
-  </si>
-  <si>
-    <t>5.7%</t>
-  </si>
-  <si>
-    <t>2.6%</t>
-  </si>
-  <si>
-    <t>1.6%</t>
-  </si>
-  <si>
-    <t>-110</t>
-  </si>
-  <si>
-    <t>+415</t>
-  </si>
-  <si>
-    <t>+443</t>
-  </si>
-  <si>
-    <t>+1654</t>
-  </si>
-  <si>
-    <t>+3746</t>
-  </si>
-  <si>
-    <t>+6150</t>
+    <t>97.0%</t>
+  </si>
+  <si>
+    <t>3.0%</t>
+  </si>
+  <si>
+    <t>-3233</t>
+  </si>
+  <si>
+    <t>+3233</t>
+  </si>
+  <si>
+    <t>77.2%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>-339</t>
+  </si>
+  <si>
+    <t>+456</t>
+  </si>
+  <si>
+    <t>+1983</t>
   </si>
 </sst>
 </file>
@@ -569,10 +542,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -583,10 +556,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -597,10 +570,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -611,10 +584,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -625,10 +598,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -639,10 +612,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -653,10 +626,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -664,13 +637,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -678,13 +651,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -692,13 +665,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -736,10 +709,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -750,122 +723,122 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -900,83 +873,83 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -987,10 +960,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1001,10 +974,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1015,10 +988,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1029,10 +1002,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Game of Yards! 2025 Betting Odds.xlsx
+++ b/odds/Game of Yards! 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
   <si>
     <t>Record</t>
   </si>
@@ -30,133 +30,70 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Groot-o-Matic</t>
+  </si>
+  <si>
+    <t>Team CTE</t>
+  </si>
+  <si>
     <t>Wakanda Forever</t>
   </si>
   <si>
     <t>Vidhi's Spirited Team</t>
   </si>
   <si>
+    <t>BB</t>
+  </si>
+  <si>
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Team CTE</t>
-  </si>
-  <si>
-    <t>Groot-o-Matic</t>
-  </si>
-  <si>
     <t>Brown Munde</t>
   </si>
   <si>
+    <t>The Chase is on</t>
+  </si>
+  <si>
     <t>Obi-Wan Jakobi</t>
   </si>
   <si>
-    <t>The Chase is on</t>
-  </si>
-  <si>
     <t>Pain Inflictors</t>
   </si>
   <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>96.9%</t>
-  </si>
-  <si>
-    <t>84.2%</t>
-  </si>
-  <si>
-    <t>66.8%</t>
-  </si>
-  <si>
-    <t>43.3%</t>
-  </si>
-  <si>
-    <t>8.0%</t>
-  </si>
-  <si>
-    <t>0.8%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-3126</t>
-  </si>
-  <si>
-    <t>-533</t>
-  </si>
-  <si>
-    <t>-201</t>
-  </si>
-  <si>
-    <t>+131</t>
-  </si>
-  <si>
-    <t>+1150</t>
-  </si>
-  <si>
-    <t>+12400</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>97.0%</t>
-  </si>
-  <si>
-    <t>3.0%</t>
-  </si>
-  <si>
-    <t>-3233</t>
-  </si>
-  <si>
-    <t>+3233</t>
-  </si>
-  <si>
-    <t>77.2%</t>
-  </si>
-  <si>
-    <t>18.0%</t>
-  </si>
-  <si>
-    <t>4.8%</t>
-  </si>
-  <si>
-    <t>-339</t>
-  </si>
-  <si>
-    <t>+456</t>
-  </si>
-  <si>
-    <t>+1983</t>
   </si>
 </sst>
 </file>
@@ -542,10 +479,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -553,13 +490,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -567,13 +504,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -587,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -595,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -612,10 +549,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -623,13 +560,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -640,10 +577,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -651,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -665,13 +602,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -703,16 +640,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -723,80 +660,80 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -804,41 +741,41 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -873,139 +810,139 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
